--- a/final_graphics/indicator_species_location.xlsx
+++ b/final_graphics/indicator_species_location.xlsx
@@ -8,21 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sierra/Documents/Research/Ordination analysis R scripts/ARTEMIS_github/final_graphics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DB4712F-932D-7340-AB1C-BC351982FB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C58F92-546B-5949-B9A7-B66F9B7CB1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="880" windowWidth="34060" windowHeight="17180" xr2:uid="{AB884DD5-771C-6748-AAC8-CCAA60D3C5C7}"/>
+    <workbookView xWindow="1840" yWindow="1060" windowWidth="25800" windowHeight="17180" xr2:uid="{AB884DD5-771C-6748-AAC8-CCAA60D3C5C7}"/>
   </bookViews>
   <sheets>
     <sheet name="free-living" sheetId="1" r:id="rId1"/>
     <sheet name="particle-associated" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'free-living'!#REF!</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">'free-living'!#REF!</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">'free-living'!#REF!</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">'free-living'!#REF!</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">'free-living'!#REF!</definedName>
-  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -895,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -998,13 +991,8 @@
     <xf numFmtId="164" fontId="8" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1022,9 +1010,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1348,13 +1339,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="2" tint="-0.749992370372631"/>
@@ -1382,6 +1366,13 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1425,17 +1416,392 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </left>
+        <right/>
         <top style="thin">
           <color theme="2" tint="-0.749992370372631"/>
         </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
       <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </bottom>
+        <top style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1467,37 +1833,12 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </horizontal>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1550,7 +1891,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="2" tint="-0.749992370372631"/>
@@ -1583,7 +1924,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="2" tint="-0.749992370372631"/>
@@ -1618,7 +1959,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="2" tint="-0.749992370372631"/>
@@ -1654,7 +1995,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="2" tint="-0.749992370372631"/>
@@ -1689,7 +2030,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="2" tint="-0.749992370372631"/>
@@ -1724,7 +2065,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="2" tint="-0.749992370372631"/>
@@ -1759,7 +2100,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="2" tint="-0.749992370372631"/>
@@ -1794,7 +2135,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="2" tint="-0.749992370372631"/>
@@ -1829,7 +2170,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="2" tint="-0.749992370372631"/>
@@ -1864,7 +2205,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="2" tint="-0.749992370372631"/>
@@ -1927,23 +2268,38 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </right>
+        <top style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </top>
         <bottom style="thin">
           <color theme="2" tint="-0.749992370372631"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </top>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
           <color theme="2" tint="-0.749992370372631"/>
         </bottom>
@@ -1967,13 +2323,11 @@
         <left style="thin">
           <color theme="2" tint="-0.749992370372631"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </bottom>
+        <right style="thin">
+          <color theme="2" tint="-0.749992370372631"/>
+        </right>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color theme="2" tint="-0.749992370372631"/>
         </vertical>
@@ -1981,369 +2335,6 @@
           <color theme="2" tint="-0.749992370372631"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </right>
-        <top style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </top>
-        <bottom style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="2" tint="-0.749992370372631"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2359,50 +2350,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2ABE2BF-A85E-4044-A01A-19FEC08BDB6C}" name="Table4" displayName="Table4" ref="A5:K6" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18" totalsRowBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A2ABE2BF-A85E-4044-A01A-19FEC08BDB6C}" name="Table4" displayName="Table4" ref="A5:K6" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44" totalsRowBorderDxfId="43">
   <autoFilter ref="A5:K6" xr:uid="{A2ABE2BF-A85E-4044-A01A-19FEC08BDB6C}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{DD6AF07F-C614-B24A-95BA-FC61494FB118}" name="ASV #" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{53B3DD3B-7B93-B94E-AC36-C06EBD2B6EFD}" name="index" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{B15AF3A6-C77D-7E43-BF10-9463D9C2E0CE}" name="OP" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{F4E8D499-3F5F-924D-8ED5-88816F74A39D}" name="West CC" dataDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{702BD104-5847-8849-9551-9B3B20504035}" name="Dotson" dataDxfId="42"/>
-    <tableColumn id="6" xr3:uid="{FC42AAAC-12DC-A043-99D7-3D6E0B41ADCE}" name="Eastern CC" dataDxfId="41"/>
-    <tableColumn id="7" xr3:uid="{B2A032FD-ACA5-C74E-BAA6-231D170B7853}" name="Getz" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{400AEF3F-62A1-5840-B888-31685F303B21}" name="p.value.bh" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{CF93E44B-44D1-3C43-93EA-B163D038D759}" name="Order" dataDxfId="38"/>
-    <tableColumn id="10" xr3:uid="{320E2C1B-56AC-7742-8DE0-A1915B8CE072}" name="Family" dataDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{BD55A3E5-55F4-5347-AD21-CC41A9585A27}" name="Genus" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{DD6AF07F-C614-B24A-95BA-FC61494FB118}" name="ASV #" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{53B3DD3B-7B93-B94E-AC36-C06EBD2B6EFD}" name="index" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{B15AF3A6-C77D-7E43-BF10-9463D9C2E0CE}" name="OP" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{F4E8D499-3F5F-924D-8ED5-88816F74A39D}" name="West CC" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{702BD104-5847-8849-9551-9B3B20504035}" name="Dotson" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{FC42AAAC-12DC-A043-99D7-3D6E0B41ADCE}" name="Eastern CC" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{B2A032FD-ACA5-C74E-BAA6-231D170B7853}" name="Getz" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{400AEF3F-62A1-5840-B888-31685F303B21}" name="p.value.bh" dataDxfId="35"/>
+    <tableColumn id="9" xr3:uid="{CF93E44B-44D1-3C43-93EA-B163D038D759}" name="Order" dataDxfId="34"/>
+    <tableColumn id="10" xr3:uid="{320E2C1B-56AC-7742-8DE0-A1915B8CE072}" name="Family" dataDxfId="33"/>
+    <tableColumn id="11" xr3:uid="{BD55A3E5-55F4-5347-AD21-CC41A9585A27}" name="Genus" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79EA4C0D-7541-DA4D-BE38-6865B4F5991E}" name="Table5" displayName="Table5" ref="A10:K49" totalsRowShown="0" headerRowDxfId="21" dataDxfId="47" headerRowBorderDxfId="34" tableBorderDxfId="35" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{79EA4C0D-7541-DA4D-BE38-6865B4F5991E}" name="Table5" displayName="Table5" ref="A10:K49" totalsRowShown="0" headerRowDxfId="31" dataDxfId="29" headerRowBorderDxfId="30" tableBorderDxfId="28" totalsRowBorderDxfId="27">
   <autoFilter ref="A10:K49" xr:uid="{79EA4C0D-7541-DA4D-BE38-6865B4F5991E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:K49">
     <sortCondition ref="B10:B49"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{044B6841-A077-1542-B973-7682404BF96C}" name="ASV #" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{EDF728DD-3797-FF47-8024-133ABCCA748F}" name="index" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{7EFBF844-B5D1-5C4C-818E-E9D53C68FD21}" name="OP" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{3DE28E85-E8C7-FF48-AB62-A8B276A8DAD9}" name="West CC" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{A58AB3CF-EEC5-F84C-B6EE-435D5FFAEA9E}" name="Dotson" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{43AEAFF7-8BDC-7149-A6FA-C3A36FF2DACD}" name="Eastern CC" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{2912E95D-3A53-3341-82FF-F36EF2393049}" name="Getz" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{8E7D6AF0-CB5E-4949-8966-7674364DF028}" name="p.value.bh" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{A7C5B2F6-C6C7-CE49-947C-176DC0FA32C3}" name="Order" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{1A9C7ABA-7273-C240-A3C2-837BC046C77A}" name="Family" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{07CC04EE-2705-AF4F-93C1-1568B36EC9F7}" name="Genus" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{044B6841-A077-1542-B973-7682404BF96C}" name="ASV #" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{EDF728DD-3797-FF47-8024-133ABCCA748F}" name="index" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{7EFBF844-B5D1-5C4C-818E-E9D53C68FD21}" name="OP" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{3DE28E85-E8C7-FF48-AB62-A8B276A8DAD9}" name="West CC" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{A58AB3CF-EEC5-F84C-B6EE-435D5FFAEA9E}" name="Dotson" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{43AEAFF7-8BDC-7149-A6FA-C3A36FF2DACD}" name="Eastern CC" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{2912E95D-3A53-3341-82FF-F36EF2393049}" name="Getz" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{8E7D6AF0-CB5E-4949-8966-7674364DF028}" name="p.value.bh" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{A7C5B2F6-C6C7-CE49-947C-176DC0FA32C3}" name="Order" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{1A9C7ABA-7273-C240-A3C2-837BC046C77A}" name="Family" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{07CC04EE-2705-AF4F-93C1-1568B36EC9F7}" name="Genus" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{18F1ED71-8B74-804B-ACB6-B64FCF0CBDA9}" name="Table616" displayName="Table616" ref="A9:K27" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowBorderDxfId="12" tableBorderDxfId="13" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{18F1ED71-8B74-804B-ACB6-B64FCF0CBDA9}" name="Table616" displayName="Table616" ref="A9:K27" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A9:K27" xr:uid="{18F1ED71-8B74-804B-ACB6-B64FCF0CBDA9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:K27">
     <sortCondition ref="B9:B27"/>
@@ -2721,10 +2712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5280C657-23A7-474D-B544-D0DFCDB6E217}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2734,29 +2725,29 @@
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="2"/>
-    <col min="6" max="6" width="13.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="12.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="22.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="47.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="49.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="40.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="50.83203125" style="2" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4246,69 +4237,123 @@
         <v>47</v>
       </c>
     </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H52" s="2"/>
+    </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H53" s="41"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H54" s="42"/>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H55" s="42"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H56" s="42"/>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H57" s="42"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H58" s="42"/>
+      <c r="H58" s="2"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H59" s="42"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H60" s="42"/>
+      <c r="H60" s="2"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H61" s="42"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H62" s="42"/>
+      <c r="H62" s="2"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H63" s="42"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H64" s="42"/>
+      <c r="H64" s="2"/>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H65" s="42"/>
+      <c r="H65" s="2"/>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H66" s="42"/>
+      <c r="H66" s="2"/>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H67" s="42"/>
+      <c r="H67" s="2"/>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H68" s="42"/>
+      <c r="H68" s="2"/>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H69" s="42"/>
+      <c r="H69" s="2"/>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H70" s="42"/>
+      <c r="H70" s="2"/>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H71" s="42"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H87" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:G6">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4316,7 +4361,7 @@
         <color theme="5" tint="0.39997558519241921"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4328,7 +4373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:G49">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4336,7 +4381,7 @@
         <color theme="5" tint="0.39997558519241921"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4348,6 +4393,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H49">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -4357,28 +4412,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
+  <conditionalFormatting sqref="H6:H49">
     <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6:H49">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54:H71">
-    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4420,19 +4455,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
@@ -4441,23 +4476,22 @@
       <c r="B3" s="30"/>
     </row>
     <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="38"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
     </row>
     <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
@@ -4469,7 +4503,7 @@
       <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="40" t="s">
         <v>143</v>
       </c>
       <c r="B9" s="31" t="s">
@@ -4499,7 +4533,7 @@
       <c r="J9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="41" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4507,7 +4541,7 @@
       <c r="A10" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="42">
         <v>2</v>
       </c>
       <c r="C10" s="23">
@@ -4525,7 +4559,7 @@
       <c r="G10" s="23">
         <v>0</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="43">
         <v>4.6638890000000002E-2</v>
       </c>
       <c r="I10" s="23" t="s">
@@ -4542,7 +4576,7 @@
       <c r="A11" s="22" t="s">
         <v>157</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="42">
         <v>2</v>
       </c>
       <c r="C11" s="23">
@@ -4560,7 +4594,7 @@
       <c r="G11" s="23">
         <v>0</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="43">
         <v>4.2115380000000001E-2</v>
       </c>
       <c r="I11" s="23" t="s">
@@ -4577,7 +4611,7 @@
       <c r="A12" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="42">
         <v>3</v>
       </c>
       <c r="C12" s="23">
@@ -4595,7 +4629,7 @@
       <c r="G12" s="23">
         <v>1</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="43">
         <v>2.7375E-2</v>
       </c>
       <c r="I12" s="23" t="s">
@@ -4612,7 +4646,7 @@
       <c r="A13" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="42">
         <v>3</v>
       </c>
       <c r="C13" s="23">
@@ -4630,7 +4664,7 @@
       <c r="G13" s="23">
         <v>1</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="43">
         <v>4.6638890000000002E-2</v>
       </c>
       <c r="I13" s="23" t="s">
@@ -4647,7 +4681,7 @@
       <c r="A14" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="45">
+      <c r="B14" s="42">
         <v>3</v>
       </c>
       <c r="C14" s="23">
@@ -4665,7 +4699,7 @@
       <c r="G14" s="23">
         <v>1</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="43">
         <v>3.2849999999999997E-2</v>
       </c>
       <c r="I14" s="23" t="s">
@@ -4682,7 +4716,7 @@
       <c r="A15" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="42">
         <v>3</v>
       </c>
       <c r="C15" s="23">
@@ -4700,7 +4734,7 @@
       <c r="G15" s="23">
         <v>1</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="43">
         <v>9.1249999999999994E-3</v>
       </c>
       <c r="I15" s="23" t="s">
@@ -4717,7 +4751,7 @@
       <c r="A16" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="42">
         <v>3</v>
       </c>
       <c r="C16" s="23">
@@ -4735,7 +4769,7 @@
       <c r="G16" s="23">
         <v>1</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="43">
         <v>9.1249999999999994E-3</v>
       </c>
       <c r="I16" s="23" t="s">
@@ -4752,7 +4786,7 @@
       <c r="A17" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="45">
+      <c r="B17" s="42">
         <v>3</v>
       </c>
       <c r="C17" s="23">
@@ -4770,7 +4804,7 @@
       <c r="G17" s="23">
         <v>1</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="43">
         <v>2.1899999999999999E-2</v>
       </c>
       <c r="I17" s="23" t="s">
@@ -4787,7 +4821,7 @@
       <c r="A18" s="22" t="s">
         <v>155</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="42">
         <v>3</v>
       </c>
       <c r="C18" s="23">
@@ -4805,7 +4839,7 @@
       <c r="G18" s="23">
         <v>1</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="43">
         <v>9.1249999999999994E-3</v>
       </c>
       <c r="I18" s="23" t="s">
@@ -4822,7 +4856,7 @@
       <c r="A19" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="45">
+      <c r="B19" s="42">
         <v>3</v>
       </c>
       <c r="C19" s="23">
@@ -4840,7 +4874,7 @@
       <c r="G19" s="23">
         <v>1</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="43">
         <v>2.7375E-2</v>
       </c>
       <c r="I19" s="23" t="s">
@@ -4857,7 +4891,7 @@
       <c r="A20" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="45">
+      <c r="B20" s="42">
         <v>5</v>
       </c>
       <c r="C20" s="23">
@@ -4875,7 +4909,7 @@
       <c r="G20" s="23">
         <v>0</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="43">
         <v>4.6638890000000002E-2</v>
       </c>
       <c r="I20" s="23" t="s">
@@ -4892,7 +4926,7 @@
       <c r="A21" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="42">
         <v>5</v>
       </c>
       <c r="C21" s="23">
@@ -4910,7 +4944,7 @@
       <c r="G21" s="23">
         <v>0</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="43">
         <v>2.7375E-2</v>
       </c>
       <c r="I21" s="23" t="s">
@@ -4927,7 +4961,7 @@
       <c r="A22" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="42">
         <v>7</v>
       </c>
       <c r="C22" s="23">
@@ -4945,7 +4979,7 @@
       <c r="G22" s="23">
         <v>1</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="43">
         <v>4.2115380000000001E-2</v>
       </c>
       <c r="I22" s="23" t="s">
@@ -4962,7 +4996,7 @@
       <c r="A23" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="42">
         <v>10</v>
       </c>
       <c r="C23" s="23">
@@ -4980,7 +5014,7 @@
       <c r="G23" s="23">
         <v>1</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="43">
         <v>2.838889E-2</v>
       </c>
       <c r="I23" s="23" t="s">
@@ -4997,7 +5031,7 @@
       <c r="A24" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="42">
         <v>15</v>
       </c>
       <c r="C24" s="23">
@@ -5015,7 +5049,7 @@
       <c r="G24" s="23">
         <v>0</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="43">
         <v>4.6638890000000002E-2</v>
       </c>
       <c r="I24" s="23" t="s">
@@ -5032,7 +5066,7 @@
       <c r="A25" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="42">
         <v>16</v>
       </c>
       <c r="C25" s="23">
@@ -5050,7 +5084,7 @@
       <c r="G25" s="23">
         <v>1</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="43">
         <v>9.1249999999999994E-3</v>
       </c>
       <c r="I25" s="23" t="s">
@@ -5067,7 +5101,7 @@
       <c r="A26" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="45">
+      <c r="B26" s="42">
         <v>16</v>
       </c>
       <c r="C26" s="23">
@@ -5085,7 +5119,7 @@
       <c r="G26" s="23">
         <v>1</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="43">
         <v>4.2115380000000001E-2</v>
       </c>
       <c r="I26" s="23" t="s">
@@ -5120,7 +5154,7 @@
       <c r="G27" s="26">
         <v>1</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="44">
         <v>4.6638890000000002E-2</v>
       </c>
       <c r="I27" s="26" t="s">
@@ -5133,62 +5167,59 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H31" s="41"/>
-    </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="H32" s="42"/>
+      <c r="H32" s="39"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H33" s="42"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H34" s="42"/>
+      <c r="H34" s="39"/>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H35" s="42"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H36" s="42"/>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H37" s="42"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H38" s="42"/>
+      <c r="H38" s="39"/>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H39" s="42"/>
+      <c r="H39" s="39"/>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H40" s="42"/>
+      <c r="H40" s="39"/>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H41" s="42"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H42" s="42"/>
+      <c r="H42" s="39"/>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H43" s="42"/>
+      <c r="H43" s="39"/>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H44" s="42"/>
+      <c r="H44" s="39"/>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H45" s="42"/>
+      <c r="H45" s="39"/>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H46" s="42"/>
+      <c r="H46" s="39"/>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H47" s="42"/>
+      <c r="H47" s="39"/>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H48" s="42"/>
+      <c r="H48" s="39"/>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H49" s="42"/>
+      <c r="H49" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
